--- a/Robot Facturación Cemento/Data - Copy/Dia_Ejecucion.xlsx
+++ b/Robot Facturación Cemento/Data - Copy/Dia_Ejecucion.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpaeyuser\Documents\UiPath\Robot Facturación Cemento\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpaeyuser\Documents\UiPath\Robot Facturación Cemento\Data - Copy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Dia_Ejecucion</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>22/09/2022</t>
+  </si>
+  <si>
+    <t>18/11/2022</t>
   </si>
 </sst>
 </file>
@@ -366,7 +369,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,7 +404,9 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
